--- a/proj2/doc/proj2数据结构设计.xlsx
+++ b/proj2/doc/proj2数据结构设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the_s\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the_s\Documents\github\Architecture_lab\proj2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,83 +225,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>pre_FU_queue 的规定大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre_FU _item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[pre_FU _item]*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元花费的周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU_cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前处于多少周期 FU_cycle&lt;FU_cycle_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU_cycle_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述一个功能单元[name:str,pre_queue,pre_queue_size,post_buffer,cycle,cycle_cost]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP_FU_dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作符和function unit的映射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看pre_FU_issue_queue的两个元素是否都满了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[operands:FU]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>pre_FU_queue_size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre_FU_queue 的规定大小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre_FU _item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[pre_FU _item]*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元花费的周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU_cycle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前处于多少周期 FU_cycle&lt;FU_cycle_cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU_cycle_cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述一个功能单元[name:str,pre_queue,pre_queue_size,post_buffer,cycle,cycle_cost]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OP_FU_dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duct[operands:FU]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作符和function unit的映射</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看pre_FU_issue_queue的两个元素是否都满了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,19 +671,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" customWidth="1"/>
     <col min="4" max="4" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -725,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -753,7 +753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -767,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -781,7 +781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -793,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -805,7 +805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -817,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -829,7 +829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -841,7 +841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -855,7 +855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -869,18 +869,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -891,10 +891,10 @@
         <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -908,20 +908,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -930,21 +930,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -952,13 +952,13 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -972,37 +972,37 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/proj2/doc/proj2数据结构设计.xlsx
+++ b/proj2/doc/proj2数据结构设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the_s\Documents\github\Architecture_lab\proj2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the_s\Documents\GitHub\Architecture_lab\proj2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,75 +233,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>[pre_FU _item]*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元花费的周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU_cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前处于多少周期 FU_cycle&lt;FU_cycle_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU_cycle_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述一个功能单元[name:str,pre_queue,pre_queue_size,post_buffer,cycle,cycle_cost]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FU list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP_FU_dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作符和function unit的映射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看pre_FU_issue_queue的两个元素是否都满了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[operands:FU]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre_FU_queue_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>pre_FU _item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[pre_FU _item]*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元花费的周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU_cycle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前处于多少周期 FU_cycle&lt;FU_cycle_cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU_cycle_cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述一个功能单元[name:str,pre_queue,pre_queue_size,post_buffer,cycle,cycle_cost]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FU list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OP_FU_dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作符和function unit的映射</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看pre_FU_issue_queue的两个元素是否都满了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[operands:FU]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre_FU_queue_size</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,19 +671,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -725,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -753,7 +753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -767,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -781,7 +781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -793,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -805,7 +805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -817,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -829,7 +829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -841,7 +841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -855,7 +855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -869,18 +869,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -891,10 +891,10 @@
         <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -908,20 +908,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -930,9 +930,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -944,7 +944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -952,13 +952,13 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -972,37 +972,37 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
